--- a/tsk.xlsx
+++ b/tsk.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ooharastudent-my.sharepoint.com/personal/fko2347092_stu_o-hara_ac_jp/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347092\Documents\GitHub\GFF1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7980738F-B68A-4834-AAC6-E7B2C5E11544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A326A9-D85F-4C74-8863-A6C752914B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6645" yWindow="2700" windowWidth="28800" windowHeight="11295" xr2:uid="{29066C4E-3460-45BC-BC6A-88B68B413D90}"/>
+    <workbookView xWindow="7665" yWindow="810" windowWidth="28800" windowHeight="11295" xr2:uid="{29066C4E-3460-45BC-BC6A-88B68B413D90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>task check</t>
     <phoneticPr fontId="1"/>
@@ -293,6 +293,68 @@
   </si>
   <si>
     <t>たいやき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マウスで操作可能、Fボタンで正面向く</t>
+    <rPh sb="4" eb="6">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間表示</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボスシーン移行</t>
+    <rPh sb="5" eb="7">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーン移行</t>
+    <rPh sb="3" eb="5">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリアシーン移行</t>
+    <rPh sb="6" eb="8">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>適当</t>
+    <rPh sb="0" eb="2">
+      <t>テキトウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -402,7 +464,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -437,6 +499,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -753,17 +818,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63404547-BF30-480A-A027-39F3744CD949}">
-  <dimension ref="B1:E32"/>
+  <dimension ref="B1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.4">
@@ -854,7 +919,9 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" s="3"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
         <v>10</v>
@@ -873,111 +940,97 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B13" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B13" s="3"/>
       <c r="C13" s="9"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>17</v>
+      <c r="E13" s="12" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B14" s="3"/>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C14" s="9"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B15" s="3"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>7</v>
+      <c r="E16" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>17</v>
+      <c r="E17" s="12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="2" t="s">
-        <v>20</v>
+      <c r="E18" s="12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>43</v>
-      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="9"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>22</v>
+      <c r="E19" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B20" s="3"/>
+      <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="C20" s="9"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
-        <v>27</v>
+      <c r="E20" s="12" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B23" s="3"/>
+      <c r="B23" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B24" s="3"/>
+      <c r="B24" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
@@ -985,74 +1038,146 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
-        <v>31</v>
+      <c r="E26" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>34</v>
+      <c r="B27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B28" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B31" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B32" s="8" t="s">
-        <v>40</v>
-      </c>
+      <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B36" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B39" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B40" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="s">
         <v>40</v>
       </c>
     </row>

--- a/tsk.xlsx
+++ b/tsk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347092\Documents\GitHub\GFF1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A326A9-D85F-4C74-8863-A6C752914B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C57F33A-6AF0-4B73-A7AB-A4D88FC99897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7665" yWindow="810" windowWidth="28800" windowHeight="11295" xr2:uid="{29066C4E-3460-45BC-BC6A-88B68B413D90}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
   <si>
     <t>task check</t>
     <phoneticPr fontId="1"/>
@@ -54,13 +54,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>未</t>
-    <rPh sb="0" eb="1">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>小内容</t>
     <rPh sb="0" eb="3">
       <t>ショウナイヨウ</t>
@@ -354,6 +347,23 @@
     <t>適当</t>
     <rPh sb="0" eb="2">
       <t>テキトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未or済</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>済</t>
+    <rPh sb="0" eb="1">
+      <t>スミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -820,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63404547-BF30-480A-A027-39F3744CD949}">
   <dimension ref="B1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -847,15 +857,15 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -863,50 +873,60 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="3"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" s="3"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B8" s="3"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>41</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.4">
@@ -914,29 +934,29 @@
       <c r="C10" s="10"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B11" s="3"/>
       <c r="C11" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
@@ -944,49 +964,49 @@
       <c r="C13" s="9"/>
       <c r="D13" s="3"/>
       <c r="E13" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B15" s="3"/>
-      <c r="C15" s="9"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
@@ -994,7 +1014,7 @@
       <c r="C18" s="9"/>
       <c r="D18" s="3"/>
       <c r="E18" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
@@ -1002,22 +1022,22 @@
       <c r="C19" s="9"/>
       <c r="D19" s="3"/>
       <c r="E19" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="3"/>
       <c r="E20" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1025,12 +1045,12 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B24" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.4">
@@ -1038,29 +1058,29 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B26" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.4">
@@ -1068,17 +1088,17 @@
       <c r="C28" s="9"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.4">
@@ -1086,15 +1106,15 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="C31" s="9"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.4">
@@ -1102,7 +1122,7 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.4">
@@ -1110,34 +1130,34 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B34" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B35" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B36" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -1145,27 +1165,27 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B39" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -1173,12 +1193,12 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/tsk.xlsx
+++ b/tsk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347092\Documents\GitHub\GFF1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C57F33A-6AF0-4B73-A7AB-A4D88FC99897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3597BB07-A12D-4F8F-B945-CA16B5A79666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7665" yWindow="810" windowWidth="28800" windowHeight="11295" xr2:uid="{29066C4E-3460-45BC-BC6A-88B68B413D90}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
   <si>
     <t>task check</t>
     <phoneticPr fontId="1"/>
@@ -365,6 +365,34 @@
     <rPh sb="0" eb="1">
       <t>スミ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チューと</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラ死亡</t>
+    <rPh sb="3" eb="5">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死ぬ瞬間スピードを遅くする（わかりやすくする</t>
+    <rPh sb="0" eb="1">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュンカン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーション</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -445,7 +473,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -468,13 +496,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -512,6 +551,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -828,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63404547-BF30-480A-A027-39F3744CD949}">
-  <dimension ref="B1:E40"/>
+  <dimension ref="B1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -942,7 +990,9 @@
       <c r="C11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E11" s="3" t="s">
         <v>9</v>
       </c>
@@ -954,7 +1004,9 @@
       <c r="C12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E12" s="3" t="s">
         <v>11</v>
       </c>
@@ -962,7 +1014,9 @@
     <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" s="3"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E13" s="12" t="s">
         <v>47</v>
       </c>
@@ -971,8 +1025,10 @@
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="3"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
       </c>
@@ -980,7 +1036,9 @@
     <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B15" s="3"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E15" s="3" t="s">
         <v>17</v>
       </c>
@@ -1004,7 +1062,9 @@
       <c r="C17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E17" s="12" t="s">
         <v>45</v>
       </c>
@@ -1012,7 +1072,9 @@
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" s="3"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E18" s="12" t="s">
         <v>46</v>
       </c>
@@ -1020,7 +1082,9 @@
     <row r="19" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B19" s="3"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E19" s="12" t="s">
         <v>48</v>
       </c>
@@ -1030,10 +1094,19 @@
         <v>49</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E20" s="12" t="s">
         <v>50</v>
       </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B23" s="4" t="s">
@@ -1047,7 +1120,7 @@
       <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
         <v>6</v>
@@ -1134,70 +1207,83 @@
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E35" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B36" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B36" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="3"/>
+      <c r="B37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B38" s="2" t="s">
-        <v>31</v>
+      <c r="B38" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B39" s="7" t="s">
-        <v>38</v>
+      <c r="B39" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B40" s="8" t="s">
-        <v>39</v>
+      <c r="B40" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B41" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B42" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
         <v>39</v>
       </c>
     </row>

--- a/tsk.xlsx
+++ b/tsk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347092\Documents\GitHub\GFF1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3597BB07-A12D-4F8F-B945-CA16B5A79666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE26A17-4104-4440-8617-E51CB9D60978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7665" yWindow="810" windowWidth="28800" windowHeight="11295" xr2:uid="{29066C4E-3460-45BC-BC6A-88B68B413D90}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t>task check</t>
     <phoneticPr fontId="1"/>
@@ -393,6 +393,106 @@
   </si>
   <si>
     <t>モーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポーズ画面→メニュー遷移</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーション探し</t>
+    <rPh sb="5" eb="6">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パターン思考</t>
+    <rPh sb="4" eb="6">
+      <t>シコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーション付け</t>
+    <rPh sb="5" eb="6">
+      <t>ヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加事項</t>
+    <rPh sb="0" eb="4">
+      <t>ツイカジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隠しボスの塔（ミニマップで視認しづらく）</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10/25 一括捜索</t>
+    <rPh sb="6" eb="8">
+      <t>イッカツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソウサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武内とき</t>
+    <rPh sb="0" eb="2">
+      <t>タケウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕事終わったやつ全員</t>
+    <rPh sb="0" eb="3">
+      <t>シゴトオ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無限</t>
+    <rPh sb="0" eb="2">
+      <t>ムゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>測定不能</t>
+    <rPh sb="0" eb="4">
+      <t>ソクテイフノウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -417,7 +517,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,8 +572,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -507,13 +619,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -556,11 +703,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,6 +739,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FFCC66FF"/>
+      <color rgb="FF9900CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -876,414 +1054,574 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63404547-BF30-480A-A027-39F3744CD949}">
-  <dimension ref="B1:E42"/>
+  <dimension ref="B1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" s="3"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B7" s="3"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B8" s="3"/>
       <c r="C8" s="11"/>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" s="3"/>
       <c r="C10" s="10"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B11" s="3"/>
       <c r="C11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="3"/>
+      <c r="F12" s="17" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13" s="3"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="3"/>
+      <c r="F13" s="18" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="11"/>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="3"/>
+      <c r="F14" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="3"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="3"/>
+      <c r="F15" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="12" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="3"/>
+      <c r="F17" s="18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="3"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="3"/>
+      <c r="F18" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="3"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="3"/>
+      <c r="F20" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C21" s="14"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="15"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="D23" s="16"/>
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
+      <c r="C24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F24" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="3">
+        <v>4</v>
+      </c>
+      <c r="F25" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B26" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="3"/>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B26" s="3"/>
+      <c r="C26" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B27" s="2" t="s">
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B27" s="3"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
         <v>20</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="F27" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B28" s="3"/>
       <c r="C28" s="9"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="E28" s="3">
+        <v>5</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B29" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="16"/>
+      <c r="E30" s="3">
+        <v>10</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B31" s="3"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3" t="s">
+      <c r="D31" s="16"/>
+      <c r="E31" s="3">
+        <v>3</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="9"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="3">
+        <v>2</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B33" s="3"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B34" s="3"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3" t="s">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B35" s="3"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="3">
+        <v>1</v>
+      </c>
+      <c r="F35" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3" t="s">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B36" s="3"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="19">
+        <v>3</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B37" s="3"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="3">
+        <v>10</v>
+      </c>
+      <c r="F37" s="17" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B34" t="s">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B38" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="C38" s="9"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="E35" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B36" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B37" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B38" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="3"/>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B39" s="3"/>
+      <c r="C39" s="21" t="s">
+        <v>66</v>
+      </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="16"/>
+      <c r="E40" s="3">
+        <v>3</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B41" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B41" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="C41" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="16"/>
       <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B42" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="3"/>
+      <c r="F41" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>67</v>
+      </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B43" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="17"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B44" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B46" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B47" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B48" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="17"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B49" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="17" t="s">
         <v>39</v>
       </c>
     </row>

--- a/tsk.xlsx
+++ b/tsk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347092\Documents\GitHub\GFF1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE26A17-4104-4440-8617-E51CB9D60978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD195645-520C-47B2-BFB1-6EBDC3786C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7665" yWindow="810" windowWidth="28800" windowHeight="11295" xr2:uid="{29066C4E-3460-45BC-BC6A-88B68B413D90}"/>
+    <workbookView xWindow="8010" yWindow="1155" windowWidth="28800" windowHeight="11295" xr2:uid="{29066C4E-3460-45BC-BC6A-88B68B413D90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
   <si>
     <t>task check</t>
     <phoneticPr fontId="1"/>
@@ -1056,8 +1056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63404547-BF30-480A-A027-39F3744CD949}">
   <dimension ref="B1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1470,7 +1470,9 @@
     <row r="36" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B36" s="3"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E36" s="19">
         <v>3</v>
       </c>
